--- a/xlsx/时间管理_intext.xlsx
+++ b/xlsx/时间管理_intext.xlsx
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E6%B5%81%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>心流理論</t>
+    <t>心流理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%98%E7%89%B9%E5%9B%BE</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E9%96%93%E7%9F%A5%E8%A6%BA</t>
   </si>
   <si>
-    <t>時間知覺</t>
+    <t>时间知觉</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Time_to_completion</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E9%8C%A2%E7%9A%84%E6%99%82%E9%96%93%E5%83%B9%E5%80%BC</t>
   </si>
   <si>
-    <t>金錢的時間價值</t>
+    <t>金钱的时间价值</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A1%B9%E7%9B%AE%E7%AE%A1%E7%90%86</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A8%E6%84%8F%E5%8A%9B%E4%B8%8D%E8%B6%B3%E9%81%8E%E5%8B%95%E7%97%87</t>
   </si>
   <si>
-    <t>注意力不足過動症</t>
+    <t>注意力不足过动症</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E5%AD%A6</t>
@@ -287,7 +287,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E8%A1%8C%E6%94%BF%E5%AD%B8</t>
   </si>
   <si>
-    <t>公共行政學</t>
+    <t>公共行政学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%98%E7%95%A5%E7%AE%A1%E7%90%86</t>
@@ -305,7 +305,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%87%89%E8%AE%8A%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>應變管理</t>
+    <t>应变管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Communications_management</t>
@@ -329,7 +329,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BE%E6%95%88%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>績效管理</t>
+    <t>绩效管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%8E%E9%99%A9%E7%AE%A1%E7%90%86</t>
@@ -377,7 +377,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%87%9F%E5%BB%BA%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>營建管理</t>
+    <t>营建管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Line_management</t>
@@ -389,7 +389,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E9%8A%B7%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>行銷管理</t>
+    <t>行销管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Operations_management</t>
@@ -413,7 +413,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%81%E8%B3%AA%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>品質管理</t>
+    <t>品质管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sales_management</t>
@@ -491,13 +491,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B1%E6%A9%9F%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>危機管理</t>
+    <t>危机管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A3%93%E5%8A%9B%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>壓力管理</t>
+    <t>压力管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Resource_management</t>
@@ -509,7 +509,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E8%B3%87%E6%BA%90%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>環境資源管理</t>
+    <t>环境资源管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8A%9B%E8%B5%84%E6%BA%90%E7%AE%A1%E7%90%86</t>
@@ -527,7 +527,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A%E7%A7%91%E6%8A%80%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>資訊科技管理</t>
+    <t>资讯科技管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AF%86%E7%AE%A1%E7%90%86</t>
@@ -569,7 +569,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E5%AE%B6%E6%B4%BE%E9%81%A3</t>
   </si>
   <si>
-    <t>專家派遣</t>
+    <t>专家派遣</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B2%E9%83%A8</t>
@@ -581,7 +581,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E9%9A%8E%E7%AE%A1%E7%90%86%E4%BA%BA%E5%93%A1</t>
   </si>
   <si>
-    <t>高階管理人員</t>
+    <t>高阶管理人员</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Adhocracy</t>
@@ -617,25 +617,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%AE%E6%A8%99%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>目標管理</t>
+    <t>目标管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E9%A2%A8%E6%A0%BC</t>
   </si>
   <si>
-    <t>管理風格</t>
+    <t>管理风格</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8F%E8%A7%80%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>宏觀管理</t>
+    <t>宏观管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%A7%80%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>微觀管理</t>
+    <t>微观管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%A6%E7%AE%A1%E7%90%86</t>
@@ -665,7 +665,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BA%E6%96%B7</t>
   </si>
   <si>
-    <t>決斷</t>
+    <t>决断</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B3%E7%AD%96</t>
@@ -683,7 +683,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A0%98%E5%B0%8E%E5%8A%9B</t>
   </si>
   <si>
-    <t>領導力</t>
+    <t>领导力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%BC%E5%BE%97%C2%B7%E5%BE%B7%E9%B2%81%E5%85%8B</t>
@@ -713,13 +713,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%95%86%E7%AE%A1%E7%90%86%E5%AD%B8%E5%AD%B8%E5%A3%AB</t>
   </si>
   <si>
-    <t>工商管理學學士</t>
+    <t>工商管理学学士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%95%86%E7%AE%A1%E7%90%86%E7%A2%A9%E5%A3%AB</t>
   </si>
   <si>
-    <t>工商管理碩士</t>
+    <t>工商管理硕士</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/PhD_in_management</t>
@@ -779,13 +779,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>管理主義</t>
+    <t>管理主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%84%E7%B9%94%E7%99%BC%E5%B1%95%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>組織發展理論</t>
+    <t>组织发展理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%88%E4%BD%9C</t>
